--- a/data/pca/factorExposure/factorExposure_2019-05-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1264855901470489</v>
+        <v>0.07778041483095861</v>
       </c>
       <c r="C2">
-        <v>-0.02067459463256104</v>
+        <v>0.01562291363426953</v>
       </c>
       <c r="D2">
-        <v>0.03665062371274186</v>
+        <v>0.0415616166852343</v>
       </c>
       <c r="E2">
-        <v>-0.09386340681788348</v>
+        <v>-0.05538100383738449</v>
       </c>
       <c r="F2">
-        <v>0.09675864360946754</v>
+        <v>0.1276375462290801</v>
       </c>
       <c r="G2">
-        <v>0.1308483593851478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09265351795395838</v>
+      </c>
+      <c r="H2">
+        <v>-0.08587824741212381</v>
+      </c>
+      <c r="I2">
+        <v>0.02438259463170319</v>
+      </c>
+      <c r="J2">
+        <v>0.04165769437899764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2147116068969118</v>
+        <v>0.1617052032788854</v>
       </c>
       <c r="C3">
-        <v>0.08462990388547849</v>
+        <v>0.08273442848065077</v>
       </c>
       <c r="D3">
-        <v>-0.02615776935474036</v>
+        <v>-0.0315290994697873</v>
       </c>
       <c r="E3">
-        <v>-0.321203872888194</v>
+        <v>-0.08696729517790273</v>
       </c>
       <c r="F3">
-        <v>0.0205010568319988</v>
+        <v>0.3653175978839588</v>
       </c>
       <c r="G3">
-        <v>0.3595960811790509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.01973457594529928</v>
+      </c>
+      <c r="H3">
+        <v>-0.2853002128575055</v>
+      </c>
+      <c r="I3">
+        <v>0.1564319737711822</v>
+      </c>
+      <c r="J3">
+        <v>0.3858933983056093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09816542364890457</v>
+        <v>0.072126456865169</v>
       </c>
       <c r="C4">
-        <v>0.02284648781172933</v>
+        <v>0.03390912524987394</v>
       </c>
       <c r="D4">
-        <v>0.01707378367944955</v>
+        <v>0.02357347041353892</v>
       </c>
       <c r="E4">
-        <v>-0.073866684722005</v>
+        <v>0.01096891227550801</v>
       </c>
       <c r="F4">
-        <v>0.05029229689772509</v>
+        <v>0.0944716402823359</v>
       </c>
       <c r="G4">
-        <v>0.037758678058026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03558712803397291</v>
+      </c>
+      <c r="H4">
+        <v>-0.03238136926259606</v>
+      </c>
+      <c r="I4">
+        <v>0.02776142125801354</v>
+      </c>
+      <c r="J4">
+        <v>0.04217293622208224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01416889934720495</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0034794669037989</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0003947889036588347</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005965484746038285</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002188335583614075</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01925682938327215</v>
+      </c>
+      <c r="H6">
+        <v>-0.00176387308838811</v>
+      </c>
+      <c r="I6">
+        <v>-0.00247692723537347</v>
+      </c>
+      <c r="J6">
+        <v>-0.001975233016875707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04302068942299754</v>
+        <v>0.03313703851062703</v>
       </c>
       <c r="C7">
-        <v>0.004987727973880722</v>
+        <v>0.01738379981485587</v>
       </c>
       <c r="D7">
-        <v>0.03102433030681677</v>
+        <v>0.0183019796584355</v>
       </c>
       <c r="E7">
-        <v>-0.08405559419924147</v>
+        <v>-0.003461679313074411</v>
       </c>
       <c r="F7">
-        <v>-0.0340985430408453</v>
+        <v>0.06379480753607449</v>
       </c>
       <c r="G7">
-        <v>0.02046733980685159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01294623562344083</v>
+      </c>
+      <c r="H7">
+        <v>-0.05047043005251463</v>
+      </c>
+      <c r="I7">
+        <v>0.0001896759489832274</v>
+      </c>
+      <c r="J7">
+        <v>0.0120797004321208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04325332671440828</v>
+        <v>0.03184357444837738</v>
       </c>
       <c r="C8">
-        <v>0.03672793084372308</v>
+        <v>0.03783648712973308</v>
       </c>
       <c r="D8">
-        <v>-0.001140523832884897</v>
+        <v>0.006761553273177952</v>
       </c>
       <c r="E8">
-        <v>-0.06844724945979944</v>
+        <v>0.004130030355161241</v>
       </c>
       <c r="F8">
-        <v>-0.0007465768313787921</v>
+        <v>0.08470861375138937</v>
       </c>
       <c r="G8">
-        <v>0.05615136909549201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0001431956231691587</v>
+      </c>
+      <c r="H8">
+        <v>-0.05555620837042207</v>
+      </c>
+      <c r="I8">
+        <v>0.02938491465703523</v>
+      </c>
+      <c r="J8">
+        <v>0.03859526865250781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08478826015192878</v>
+        <v>0.06090313703248601</v>
       </c>
       <c r="C9">
-        <v>0.02554817225068486</v>
+        <v>0.03425530089903845</v>
       </c>
       <c r="D9">
-        <v>0.02758791290945778</v>
+        <v>0.02437415859736407</v>
       </c>
       <c r="E9">
-        <v>-0.0672534873119488</v>
+        <v>0.01365466293993879</v>
       </c>
       <c r="F9">
-        <v>0.03168563440513208</v>
+        <v>0.09562340272759028</v>
       </c>
       <c r="G9">
-        <v>0.0380599819898842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02715333704560905</v>
+      </c>
+      <c r="H9">
+        <v>-0.02967539099319196</v>
+      </c>
+      <c r="I9">
+        <v>0.007581270962536672</v>
+      </c>
+      <c r="J9">
+        <v>0.006289229474519134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01493673333888281</v>
+        <v>0.01048990120503862</v>
       </c>
       <c r="C10">
-        <v>-0.1614609651638588</v>
+        <v>-0.1605160167201993</v>
       </c>
       <c r="D10">
-        <v>-0.008258957639532988</v>
+        <v>-0.01442368551165581</v>
       </c>
       <c r="E10">
-        <v>-0.05340871405016366</v>
+        <v>-0.0329369832908193</v>
       </c>
       <c r="F10">
-        <v>0.01081578268382358</v>
+        <v>0.05174883032630222</v>
       </c>
       <c r="G10">
-        <v>0.00166352514433945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02176768535030937</v>
+      </c>
+      <c r="H10">
+        <v>0.004169778377432427</v>
+      </c>
+      <c r="I10">
+        <v>0.122336587105741</v>
+      </c>
+      <c r="J10">
+        <v>0.00743504875635845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05767217938352903</v>
+        <v>0.04836584560891628</v>
       </c>
       <c r="C11">
-        <v>0.003723644564076389</v>
+        <v>0.02133346947410558</v>
       </c>
       <c r="D11">
-        <v>-0.01022967529172881</v>
+        <v>0.005935689576146248</v>
       </c>
       <c r="E11">
-        <v>-0.040260960090451</v>
+        <v>-0.02023376458616795</v>
       </c>
       <c r="F11">
-        <v>0.005939888593600348</v>
+        <v>0.04188848044944486</v>
       </c>
       <c r="G11">
-        <v>-0.01724943168034373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.00258265241480682</v>
+      </c>
+      <c r="H11">
+        <v>-0.01418604220737059</v>
+      </c>
+      <c r="I11">
+        <v>-0.01745667398965536</v>
+      </c>
+      <c r="J11">
+        <v>0.01039450475345826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04368131942523514</v>
+        <v>0.04417865033588033</v>
       </c>
       <c r="C12">
-        <v>0.010944709285177</v>
+        <v>0.02249758339171091</v>
       </c>
       <c r="D12">
-        <v>-0.007097010291667598</v>
+        <v>0.006078529623846054</v>
       </c>
       <c r="E12">
-        <v>-0.03363237759061508</v>
+        <v>-0.004406446730156448</v>
       </c>
       <c r="F12">
-        <v>0.002417241351179809</v>
+        <v>0.02545568777260132</v>
       </c>
       <c r="G12">
-        <v>-0.0008683082885975699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003954892349795415</v>
+      </c>
+      <c r="H12">
+        <v>-0.011375661573785</v>
+      </c>
+      <c r="I12">
+        <v>-0.01734899392002564</v>
+      </c>
+      <c r="J12">
+        <v>0.003703877077993105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06064982524127113</v>
+        <v>0.04047750982341606</v>
       </c>
       <c r="C13">
-        <v>0.01536246630749571</v>
+        <v>0.02178951392743674</v>
       </c>
       <c r="D13">
-        <v>-0.01201408942415838</v>
+        <v>0.00795382724302731</v>
       </c>
       <c r="E13">
-        <v>-0.1086117897542281</v>
+        <v>-0.04110012233273988</v>
       </c>
       <c r="F13">
-        <v>0.02026669340927358</v>
+        <v>0.0968951255610305</v>
       </c>
       <c r="G13">
-        <v>0.05355003508421499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.008545491613950231</v>
+      </c>
+      <c r="H13">
+        <v>-0.06087351891093778</v>
+      </c>
+      <c r="I13">
+        <v>0.009346958148017366</v>
+      </c>
+      <c r="J13">
+        <v>0.03019175072629599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03771821984065664</v>
+        <v>0.0275927957001606</v>
       </c>
       <c r="C14">
-        <v>0.006572379930457783</v>
+        <v>0.01446435941507641</v>
       </c>
       <c r="D14">
-        <v>0.02074463148611616</v>
+        <v>0.02280032468793777</v>
       </c>
       <c r="E14">
-        <v>-0.02052627360488517</v>
+        <v>0.0003785277543049373</v>
       </c>
       <c r="F14">
-        <v>-0.005020934725148403</v>
+        <v>0.03965675549947801</v>
       </c>
       <c r="G14">
-        <v>0.04274932514483229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01406444779858335</v>
+      </c>
+      <c r="H14">
+        <v>-0.05940072910312202</v>
+      </c>
+      <c r="I14">
+        <v>0.01647421799842553</v>
+      </c>
+      <c r="J14">
+        <v>-0.008582778825350636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04859087438272457</v>
+        <v>0.04268219667366706</v>
       </c>
       <c r="C16">
-        <v>0.02087949020815227</v>
+        <v>0.02969928154737855</v>
       </c>
       <c r="D16">
-        <v>-0.01782685696698593</v>
+        <v>0.0004494935674997969</v>
       </c>
       <c r="E16">
-        <v>-0.03819896916271116</v>
+        <v>-0.01491674242360038</v>
       </c>
       <c r="F16">
-        <v>0.001029065165740892</v>
+        <v>0.03600526146987618</v>
       </c>
       <c r="G16">
-        <v>-0.0131292249085215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.008767576642565725</v>
+      </c>
+      <c r="H16">
+        <v>-0.01612486687915692</v>
+      </c>
+      <c r="I16">
+        <v>-0.01458927915754788</v>
+      </c>
+      <c r="J16">
+        <v>0.007403604746445234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05218154079670009</v>
+        <v>0.04421072518531473</v>
       </c>
       <c r="C19">
-        <v>0.02630923458511153</v>
+        <v>0.03473598959301499</v>
       </c>
       <c r="D19">
-        <v>-0.001383858579146015</v>
+        <v>0.009191684550204339</v>
       </c>
       <c r="E19">
-        <v>-0.07701992827082495</v>
+        <v>-0.02154942975194166</v>
       </c>
       <c r="F19">
-        <v>-0.006494097563373881</v>
+        <v>0.08886548043302121</v>
       </c>
       <c r="G19">
-        <v>0.07387969397366823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.003783169177119729</v>
+      </c>
+      <c r="H19">
+        <v>-0.08724951173014557</v>
+      </c>
+      <c r="I19">
+        <v>0.03608452661578258</v>
+      </c>
+      <c r="J19">
+        <v>0.02397994356372708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03772689240453087</v>
+        <v>0.01767162611995996</v>
       </c>
       <c r="C20">
-        <v>0.03359455702806691</v>
+        <v>0.03246623227303758</v>
       </c>
       <c r="D20">
-        <v>0.0119136374357865</v>
+        <v>0.01524137922158387</v>
       </c>
       <c r="E20">
-        <v>-0.06663924246665777</v>
+        <v>-0.005088737731731048</v>
       </c>
       <c r="F20">
-        <v>-0.01443947876172844</v>
+        <v>0.07366873457717098</v>
       </c>
       <c r="G20">
-        <v>0.04584193257005106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.009455378289872501</v>
+      </c>
+      <c r="H20">
+        <v>-0.07621191609150271</v>
+      </c>
+      <c r="I20">
+        <v>0.01416421117030402</v>
+      </c>
+      <c r="J20">
+        <v>0.05044028074006379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03857965160816076</v>
+        <v>0.01858717238284479</v>
       </c>
       <c r="C21">
-        <v>0.01466845528403195</v>
+        <v>0.02496568120824038</v>
       </c>
       <c r="D21">
-        <v>-0.003126640063070627</v>
+        <v>-0.002948422146801142</v>
       </c>
       <c r="E21">
-        <v>-0.08490915736213957</v>
+        <v>-0.00692964949529599</v>
       </c>
       <c r="F21">
-        <v>0.04558494897244715</v>
+        <v>0.0794460768590371</v>
       </c>
       <c r="G21">
-        <v>0.04922742607683483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02185557103703964</v>
+      </c>
+      <c r="H21">
+        <v>-0.04163286517441688</v>
+      </c>
+      <c r="I21">
+        <v>-0.004177626122754482</v>
+      </c>
+      <c r="J21">
+        <v>-0.01520000653594713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04838096740149631</v>
+        <v>0.04106816065153913</v>
       </c>
       <c r="C24">
-        <v>0.01223976803195997</v>
+        <v>0.01889198275000105</v>
       </c>
       <c r="D24">
-        <v>-0.005375693720866251</v>
+        <v>0.005432896613576373</v>
       </c>
       <c r="E24">
-        <v>-0.04825280651744784</v>
+        <v>-0.01365907897737901</v>
       </c>
       <c r="F24">
-        <v>0.003187587896038859</v>
+        <v>0.0443844034368687</v>
       </c>
       <c r="G24">
-        <v>-0.00731182398144193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.009221742622205251</v>
+      </c>
+      <c r="H24">
+        <v>-0.0149194521193999</v>
+      </c>
+      <c r="I24">
+        <v>-0.01433569747083822</v>
+      </c>
+      <c r="J24">
+        <v>0.01815445182484429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04934444664884868</v>
+        <v>0.04247794523135401</v>
       </c>
       <c r="C25">
-        <v>0.003769775141339855</v>
+        <v>0.01982707771146602</v>
       </c>
       <c r="D25">
-        <v>-0.00800618378823713</v>
+        <v>0.003165466663469948</v>
       </c>
       <c r="E25">
-        <v>-0.04531454008690116</v>
+        <v>-0.01600767983095704</v>
       </c>
       <c r="F25">
-        <v>0.009786405684519718</v>
+        <v>0.04702901896674741</v>
       </c>
       <c r="G25">
-        <v>-0.01068016488408728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002253952890739716</v>
+      </c>
+      <c r="H25">
+        <v>-0.00957394246483719</v>
+      </c>
+      <c r="I25">
+        <v>-0.01610919673183318</v>
+      </c>
+      <c r="J25">
+        <v>0.007918226937545233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.00639485720373606</v>
+        <v>0.01175921474328161</v>
       </c>
       <c r="C26">
-        <v>0.01655525830842774</v>
+        <v>0.01644711056804013</v>
       </c>
       <c r="D26">
-        <v>0.003523365389741872</v>
+        <v>-0.0009451433370965055</v>
       </c>
       <c r="E26">
-        <v>-0.04912584730595736</v>
+        <v>-0.02421563251496036</v>
       </c>
       <c r="F26">
-        <v>0.01712972156519479</v>
+        <v>0.04812610394572776</v>
       </c>
       <c r="G26">
-        <v>0.01533861718608829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.008432514489466716</v>
+      </c>
+      <c r="H26">
+        <v>-0.03853192466872213</v>
+      </c>
+      <c r="I26">
+        <v>-0.005456912273805715</v>
+      </c>
+      <c r="J26">
+        <v>0.01316318559431448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1141503291120086</v>
+        <v>0.08629541599494589</v>
       </c>
       <c r="C27">
-        <v>0.01619111030208062</v>
+        <v>0.02758018491980978</v>
       </c>
       <c r="D27">
-        <v>0.01684931729727413</v>
+        <v>0.02901119503925866</v>
       </c>
       <c r="E27">
-        <v>-0.1117885977863191</v>
+        <v>-0.005401903736081984</v>
       </c>
       <c r="F27">
-        <v>0.02216458189728327</v>
+        <v>0.08861398305706321</v>
       </c>
       <c r="G27">
-        <v>-0.00368912893693682</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.005509180937811857</v>
+      </c>
+      <c r="H27">
+        <v>-0.009206376460968498</v>
+      </c>
+      <c r="I27">
+        <v>0.007677101685470726</v>
+      </c>
+      <c r="J27">
+        <v>0.02829570501595468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01523849502876514</v>
+        <v>0.02492648707741991</v>
       </c>
       <c r="C28">
-        <v>-0.2420115724375236</v>
+        <v>-0.2332302549279172</v>
       </c>
       <c r="D28">
-        <v>-0.01659907578828267</v>
+        <v>-0.02236003535311543</v>
       </c>
       <c r="E28">
-        <v>-0.02993633325381402</v>
+        <v>-0.02662669704215105</v>
       </c>
       <c r="F28">
-        <v>0.01243536123013761</v>
+        <v>0.04084176995438954</v>
       </c>
       <c r="G28">
-        <v>-0.01464891919883988</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02606596079715724</v>
+      </c>
+      <c r="H28">
+        <v>0.02503978089381584</v>
+      </c>
+      <c r="I28">
+        <v>0.1698401376461126</v>
+      </c>
+      <c r="J28">
+        <v>0.02107013530101782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01908139417796018</v>
+        <v>0.01837569456599747</v>
       </c>
       <c r="C29">
-        <v>0.01622896062290729</v>
+        <v>0.0177241625267088</v>
       </c>
       <c r="D29">
-        <v>0.02308709581709005</v>
+        <v>0.02098422436789836</v>
       </c>
       <c r="E29">
-        <v>-0.02819042161113909</v>
+        <v>0.006643778321803202</v>
       </c>
       <c r="F29">
-        <v>0.007063857113929197</v>
+        <v>0.04116559549718568</v>
       </c>
       <c r="G29">
-        <v>0.042393501431211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01438213092335776</v>
+      </c>
+      <c r="H29">
+        <v>-0.05855768945114562</v>
+      </c>
+      <c r="I29">
+        <v>0.00750948493889745</v>
+      </c>
+      <c r="J29">
+        <v>-0.02458873081832037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1078091969931571</v>
+        <v>0.09963615114469627</v>
       </c>
       <c r="C30">
-        <v>0.009709156423307047</v>
+        <v>0.03647234932702117</v>
       </c>
       <c r="D30">
-        <v>0.01273574423733676</v>
+        <v>0.03182496993288571</v>
       </c>
       <c r="E30">
-        <v>-0.1257937795670144</v>
+        <v>-0.0421770957617628</v>
       </c>
       <c r="F30">
-        <v>0.03433599288160553</v>
+        <v>0.10986243743743</v>
       </c>
       <c r="G30">
-        <v>-0.07052984207361031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.009459826505213107</v>
+      </c>
+      <c r="H30">
+        <v>-0.01133303004221418</v>
+      </c>
+      <c r="I30">
+        <v>-0.02823900934704797</v>
+      </c>
+      <c r="J30">
+        <v>-0.002643570793153466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.0571790372447644</v>
+        <v>0.05893543580744685</v>
       </c>
       <c r="C31">
-        <v>0.01000273380984064</v>
+        <v>0.0169663236798205</v>
       </c>
       <c r="D31">
-        <v>0.01548247394063064</v>
+        <v>0.02030651895925151</v>
       </c>
       <c r="E31">
-        <v>0.02186890079870201</v>
+        <v>-0.01262827100237892</v>
       </c>
       <c r="F31">
-        <v>0.00549543526726635</v>
+        <v>0.00180110254599451</v>
       </c>
       <c r="G31">
-        <v>0.01010283951633632</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03493315673026937</v>
+      </c>
+      <c r="H31">
+        <v>-0.04792070460277391</v>
+      </c>
+      <c r="I31">
+        <v>0.01157291673495426</v>
+      </c>
+      <c r="J31">
+        <v>-0.02127291947239851</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07114386771277625</v>
+        <v>0.04754032003209693</v>
       </c>
       <c r="C32">
-        <v>0.024522362865228</v>
+        <v>0.04400139990393043</v>
       </c>
       <c r="D32">
-        <v>0.01031705839338283</v>
+        <v>0.02220203995011629</v>
       </c>
       <c r="E32">
-        <v>-0.1139865587394471</v>
+        <v>-0.00503922641552869</v>
       </c>
       <c r="F32">
-        <v>-0.003836449056998318</v>
+        <v>0.1016582520915728</v>
       </c>
       <c r="G32">
-        <v>0.03709462495178273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.002605157410220688</v>
+      </c>
+      <c r="H32">
+        <v>-0.04647968794775019</v>
+      </c>
+      <c r="I32">
+        <v>0.02201546303291017</v>
+      </c>
+      <c r="J32">
+        <v>-0.008995081379031343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06984863551528696</v>
+        <v>0.0579704976625026</v>
       </c>
       <c r="C33">
-        <v>0.02930973857117817</v>
+        <v>0.04490773264206693</v>
       </c>
       <c r="D33">
-        <v>0.006881857092564034</v>
+        <v>0.007407747196967414</v>
       </c>
       <c r="E33">
-        <v>-0.0697149295019401</v>
+        <v>-0.03016511120370148</v>
       </c>
       <c r="F33">
-        <v>0.04217414669032209</v>
+        <v>0.07800395147794952</v>
       </c>
       <c r="G33">
-        <v>0.02607277606195217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01886110310383031</v>
+      </c>
+      <c r="H33">
+        <v>-0.05153601391763952</v>
+      </c>
+      <c r="I33">
+        <v>-0.01411775196689354</v>
+      </c>
+      <c r="J33">
+        <v>0.01187927658844501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04745036636151408</v>
+        <v>0.04145356011773957</v>
       </c>
       <c r="C34">
-        <v>0.01272191484456552</v>
+        <v>0.02468972850979479</v>
       </c>
       <c r="D34">
-        <v>-0.006247099051330273</v>
+        <v>0.009196266424412096</v>
       </c>
       <c r="E34">
-        <v>-0.02584729329869796</v>
+        <v>-0.01025897001670967</v>
       </c>
       <c r="F34">
-        <v>-0.002852259278934038</v>
+        <v>0.03578794549386711</v>
       </c>
       <c r="G34">
-        <v>0.004029339111322462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.00025964318647207</v>
+      </c>
+      <c r="H34">
+        <v>-0.02039537635932454</v>
+      </c>
+      <c r="I34">
+        <v>-0.01389773758956441</v>
+      </c>
+      <c r="J34">
+        <v>0.0002607977278571402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01194374134987062</v>
+        <v>0.01365960369876858</v>
       </c>
       <c r="C36">
-        <v>-0.01078889214185333</v>
+        <v>0.0002305398712967617</v>
       </c>
       <c r="D36">
-        <v>0.005460661086527718</v>
+        <v>0.007399875001658536</v>
       </c>
       <c r="E36">
-        <v>-0.02274170136728032</v>
+        <v>-0.003027724034343691</v>
       </c>
       <c r="F36">
-        <v>0.007772234195097337</v>
+        <v>0.03004969673998126</v>
       </c>
       <c r="G36">
-        <v>0.01465132570981775</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01462246116997013</v>
+      </c>
+      <c r="H36">
+        <v>-0.03402455290021498</v>
+      </c>
+      <c r="I36">
+        <v>0.003184823487021431</v>
+      </c>
+      <c r="J36">
+        <v>-0.02103028707796266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05559666517359213</v>
+        <v>0.03095048684891762</v>
       </c>
       <c r="C38">
-        <v>0.002273389834378844</v>
+        <v>0.008102650639602044</v>
       </c>
       <c r="D38">
-        <v>0.02525376755577124</v>
+        <v>0.008603772547941362</v>
       </c>
       <c r="E38">
-        <v>-0.03179476170495724</v>
+        <v>-0.008053101473532035</v>
       </c>
       <c r="F38">
-        <v>0.0127989045258127</v>
+        <v>0.05075846284602629</v>
       </c>
       <c r="G38">
-        <v>0.04665866582504172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02536288890590508</v>
+      </c>
+      <c r="H38">
+        <v>-0.02060269675406051</v>
+      </c>
+      <c r="I38">
+        <v>-0.0003806898909137363</v>
+      </c>
+      <c r="J38">
+        <v>-0.02819394491724818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07571534835390896</v>
+        <v>0.05831222679408837</v>
       </c>
       <c r="C39">
-        <v>0.01199519365001166</v>
+        <v>0.03506962104605287</v>
       </c>
       <c r="D39">
-        <v>-0.001525872831766356</v>
+        <v>0.01630328222004385</v>
       </c>
       <c r="E39">
-        <v>-0.04841962614364204</v>
+        <v>-0.02672647994622634</v>
       </c>
       <c r="F39">
-        <v>0.02332543123181629</v>
+        <v>0.05722311781169628</v>
       </c>
       <c r="G39">
-        <v>-0.008077333580453891</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.009810914861324106</v>
+      </c>
+      <c r="H39">
+        <v>-0.0161325900979488</v>
+      </c>
+      <c r="I39">
+        <v>-0.03391368125602113</v>
+      </c>
+      <c r="J39">
+        <v>0.00416914022736854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07253210001556201</v>
+        <v>0.05644617632449949</v>
       </c>
       <c r="C40">
-        <v>0.02629662412390637</v>
+        <v>0.03362609777177411</v>
       </c>
       <c r="D40">
-        <v>0.001215194777681087</v>
+        <v>0.02492575986371124</v>
       </c>
       <c r="E40">
-        <v>-0.1115231786164207</v>
+        <v>-0.0479470783683228</v>
       </c>
       <c r="F40">
-        <v>0.03605867417225735</v>
+        <v>0.1008832883018197</v>
       </c>
       <c r="G40">
-        <v>0.09845101394572124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.001761642753330747</v>
+      </c>
+      <c r="H40">
+        <v>-0.0815444700312471</v>
+      </c>
+      <c r="I40">
+        <v>0.003898993679725875</v>
+      </c>
+      <c r="J40">
+        <v>0.0551085423630777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003984415887379022</v>
+        <v>0.0009175365583022044</v>
       </c>
       <c r="C41">
-        <v>0.01135342621058305</v>
+        <v>0.01039165559708164</v>
       </c>
       <c r="D41">
-        <v>0.01752454580033335</v>
+        <v>0.005265214549894886</v>
       </c>
       <c r="E41">
-        <v>-0.01057827232566571</v>
+        <v>-0.0003387123119772009</v>
       </c>
       <c r="F41">
-        <v>0.02265656994677174</v>
+        <v>0.01735620635408307</v>
       </c>
       <c r="G41">
-        <v>0.02884610108759017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02767523687652207</v>
+      </c>
+      <c r="H41">
+        <v>-0.0405262583371576</v>
+      </c>
+      <c r="I41">
+        <v>0.02411313574509541</v>
+      </c>
+      <c r="J41">
+        <v>-0.006529494335919715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1413278773463715</v>
+        <v>0.2427010174738414</v>
       </c>
       <c r="C42">
-        <v>0.1837654772902089</v>
+        <v>0.1550772258915943</v>
       </c>
       <c r="D42">
-        <v>-0.931887711686723</v>
+        <v>-0.8972410579014173</v>
       </c>
       <c r="E42">
-        <v>0.05077793805279315</v>
+        <v>-0.1802499022768839</v>
       </c>
       <c r="F42">
-        <v>-0.01934231290728685</v>
+        <v>-0.2186878508677524</v>
       </c>
       <c r="G42">
-        <v>-0.1195786317990863</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004760000749873252</v>
+      </c>
+      <c r="H42">
+        <v>-0.00416161988541646</v>
+      </c>
+      <c r="I42">
+        <v>0.05476493310345866</v>
+      </c>
+      <c r="J42">
+        <v>0.003334326439467507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008407822175935928</v>
+        <v>0.00322952938629724</v>
       </c>
       <c r="C43">
-        <v>0.01352078207530385</v>
+        <v>0.0128995119943422</v>
       </c>
       <c r="D43">
-        <v>0.0166965631435703</v>
+        <v>0.006837619766587895</v>
       </c>
       <c r="E43">
-        <v>-0.03022658611539492</v>
+        <v>-0.00626766853940262</v>
       </c>
       <c r="F43">
-        <v>-0.00169865414157722</v>
+        <v>0.02874835800347455</v>
       </c>
       <c r="G43">
-        <v>0.02159520587816777</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01001602750303176</v>
+      </c>
+      <c r="H43">
+        <v>-0.03930444151362097</v>
+      </c>
+      <c r="I43">
+        <v>0.01567197869533012</v>
+      </c>
+      <c r="J43">
+        <v>0.001530581788571745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04081184620366424</v>
+        <v>0.02683594369367256</v>
       </c>
       <c r="C44">
-        <v>0.03697835825781275</v>
+        <v>0.03218803434768579</v>
       </c>
       <c r="D44">
-        <v>0.005850418242860006</v>
+        <v>0.001977498937652803</v>
       </c>
       <c r="E44">
-        <v>-0.1126001805457046</v>
+        <v>-0.02859723336303669</v>
       </c>
       <c r="F44">
-        <v>0.07638868970089029</v>
+        <v>0.1202150322687853</v>
       </c>
       <c r="G44">
-        <v>0.1294874529787587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03337062459735862</v>
+      </c>
+      <c r="H44">
+        <v>-0.1198539917810267</v>
+      </c>
+      <c r="I44">
+        <v>0.02319371428630084</v>
+      </c>
+      <c r="J44">
+        <v>0.01309925954657511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02130007090638473</v>
+        <v>0.02104858412629688</v>
       </c>
       <c r="C46">
-        <v>0.01210218642296425</v>
+        <v>0.0245512749743374</v>
       </c>
       <c r="D46">
-        <v>0.02252501654069877</v>
+        <v>0.01960902497076985</v>
       </c>
       <c r="E46">
-        <v>-0.02093171198202166</v>
+        <v>-0.008168608873129157</v>
       </c>
       <c r="F46">
-        <v>0.02047146229437766</v>
+        <v>0.0465401140719297</v>
       </c>
       <c r="G46">
-        <v>0.04258206849275827</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01576488138589575</v>
+      </c>
+      <c r="H46">
+        <v>-0.06429572434056592</v>
+      </c>
+      <c r="I46">
+        <v>0.01491783951740205</v>
+      </c>
+      <c r="J46">
+        <v>-0.0005993220900529524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08120419925834817</v>
+        <v>0.08820829018061967</v>
       </c>
       <c r="C47">
-        <v>0.005875836252108442</v>
+        <v>0.01684177499992963</v>
       </c>
       <c r="D47">
-        <v>0.0202302062666141</v>
+        <v>0.0254652441490057</v>
       </c>
       <c r="E47">
-        <v>0.02554112261073139</v>
+        <v>0.00261362338300569</v>
       </c>
       <c r="F47">
-        <v>0.0001917860576372089</v>
+        <v>-0.003379751229850326</v>
       </c>
       <c r="G47">
-        <v>0.0298059335670946</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03151539292934845</v>
+      </c>
+      <c r="H47">
+        <v>-0.06519285806076514</v>
+      </c>
+      <c r="I47">
+        <v>0.02000892068664526</v>
+      </c>
+      <c r="J47">
+        <v>-0.006954666187453314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01540068053848696</v>
+        <v>0.01607058790782542</v>
       </c>
       <c r="C48">
-        <v>0.01587454230223363</v>
+        <v>0.0184076013033521</v>
       </c>
       <c r="D48">
-        <v>0.01471242521818149</v>
+        <v>0.008684646816993713</v>
       </c>
       <c r="E48">
-        <v>-0.03412565332794044</v>
+        <v>-0.001294278351029981</v>
       </c>
       <c r="F48">
-        <v>0.01521252538418752</v>
+        <v>0.0366759930738805</v>
       </c>
       <c r="G48">
-        <v>0.01262341271245205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.007830980571851777</v>
+      </c>
+      <c r="H48">
+        <v>-0.02551544317635226</v>
+      </c>
+      <c r="I48">
+        <v>0.01331759752297962</v>
+      </c>
+      <c r="J48">
+        <v>-0.003614916225612063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08058050254347202</v>
+        <v>0.08343503555582894</v>
       </c>
       <c r="C50">
-        <v>0.02039516698423009</v>
+        <v>0.0294101535349078</v>
       </c>
       <c r="D50">
-        <v>0.02911802173398825</v>
+        <v>0.02055216989999039</v>
       </c>
       <c r="E50">
-        <v>0.02662892484728591</v>
+        <v>0.005410102206665699</v>
       </c>
       <c r="F50">
-        <v>-0.000561447868378377</v>
+        <v>0.001466074650971112</v>
       </c>
       <c r="G50">
-        <v>0.01522525502941879</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.002371700743199878</v>
+      </c>
+      <c r="H50">
+        <v>-0.05296091521966462</v>
+      </c>
+      <c r="I50">
+        <v>0.001566079261678248</v>
+      </c>
+      <c r="J50">
+        <v>-0.04916188946685952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06990165260282695</v>
+        <v>0.04707163056270998</v>
       </c>
       <c r="C51">
-        <v>-0.02462784876522178</v>
+        <v>-0.005510943544624851</v>
       </c>
       <c r="D51">
-        <v>-0.00529918192341838</v>
+        <v>0.01120041027408122</v>
       </c>
       <c r="E51">
-        <v>-0.07458682303401057</v>
+        <v>-0.0459682643027421</v>
       </c>
       <c r="F51">
-        <v>0.0514696664793717</v>
+        <v>0.08568569486637694</v>
       </c>
       <c r="G51">
-        <v>0.02529890893348794</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04507478779975081</v>
+      </c>
+      <c r="H51">
+        <v>-0.06662011079302517</v>
+      </c>
+      <c r="I51">
+        <v>0.03408266027611161</v>
+      </c>
+      <c r="J51">
+        <v>-0.008500588381657338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.143521032660703</v>
+        <v>0.1276518229703612</v>
       </c>
       <c r="C53">
-        <v>0.006956170750253919</v>
+        <v>0.03389338910136114</v>
       </c>
       <c r="D53">
-        <v>0.0460255838328425</v>
+        <v>0.04859217918033427</v>
       </c>
       <c r="E53">
-        <v>0.03906531329434441</v>
+        <v>0.01386864249121391</v>
       </c>
       <c r="F53">
-        <v>-0.01144785159772312</v>
+        <v>-0.02921315769150341</v>
       </c>
       <c r="G53">
-        <v>-0.002429997095338851</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02322808890937535</v>
+      </c>
+      <c r="H53">
+        <v>-0.005314483941229959</v>
+      </c>
+      <c r="I53">
+        <v>0.03293061250904303</v>
+      </c>
+      <c r="J53">
+        <v>0.03253695410859191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02570157088353861</v>
+        <v>0.02094808546889497</v>
       </c>
       <c r="C54">
-        <v>-0.005587147093788936</v>
+        <v>0.007134125524870325</v>
       </c>
       <c r="D54">
-        <v>0.02641931008830185</v>
+        <v>0.02388784198094722</v>
       </c>
       <c r="E54">
-        <v>-0.02995662292521832</v>
+        <v>0.003170415334294528</v>
       </c>
       <c r="F54">
-        <v>0.0390544377374801</v>
+        <v>0.04547016864748818</v>
       </c>
       <c r="G54">
-        <v>0.0540084336730133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0339128144618355</v>
+      </c>
+      <c r="H54">
+        <v>-0.05559674687430718</v>
+      </c>
+      <c r="I54">
+        <v>0.03279389921557184</v>
+      </c>
+      <c r="J54">
+        <v>-0.02725001463721244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09718569168512294</v>
+        <v>0.1012605485689195</v>
       </c>
       <c r="C55">
-        <v>-0.004464577184128011</v>
+        <v>0.01826108986219457</v>
       </c>
       <c r="D55">
-        <v>0.0390523610819071</v>
+        <v>0.02964045903447066</v>
       </c>
       <c r="E55">
-        <v>0.003362496143179299</v>
+        <v>0.03667891561152578</v>
       </c>
       <c r="F55">
-        <v>-0.0278126638580861</v>
+        <v>-0.01035354503713055</v>
       </c>
       <c r="G55">
-        <v>-0.007367406304998593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01088369501072688</v>
+      </c>
+      <c r="H55">
+        <v>-0.01954375126484627</v>
+      </c>
+      <c r="I55">
+        <v>0.01243759150932428</v>
+      </c>
+      <c r="J55">
+        <v>0.02172154932388367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1780610517886311</v>
+        <v>0.1690088844995086</v>
       </c>
       <c r="C56">
-        <v>-0.01964624463847514</v>
+        <v>0.01522176896194623</v>
       </c>
       <c r="D56">
-        <v>0.07831598604305266</v>
+        <v>0.08471276532490365</v>
       </c>
       <c r="E56">
-        <v>0.0690901355904687</v>
+        <v>0.04647863715747252</v>
       </c>
       <c r="F56">
-        <v>-0.06491313433602033</v>
+        <v>-0.06130714326483729</v>
       </c>
       <c r="G56">
-        <v>-0.02594557744330748</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02090851512024181</v>
+      </c>
+      <c r="H56">
+        <v>0.03835339301882715</v>
+      </c>
+      <c r="I56">
+        <v>0.0002147330363098168</v>
+      </c>
+      <c r="J56">
+        <v>0.06039287290851009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08933966514048036</v>
+        <v>0.06881216554662063</v>
       </c>
       <c r="C57">
-        <v>0.0214545427822352</v>
+        <v>0.02759820769597616</v>
       </c>
       <c r="D57">
-        <v>0.0211121199402554</v>
+        <v>0.01401722782471046</v>
       </c>
       <c r="E57">
-        <v>-0.06321933484405526</v>
+        <v>-0.02786026373244489</v>
       </c>
       <c r="F57">
-        <v>0.01932174881192471</v>
+        <v>0.06533876664918366</v>
       </c>
       <c r="G57">
-        <v>0.04799692596901046</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.006719673649139203</v>
+      </c>
+      <c r="H57">
+        <v>-0.04410506497387742</v>
+      </c>
+      <c r="I57">
+        <v>-0.009989133354456262</v>
+      </c>
+      <c r="J57">
+        <v>0.03959809475487319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1647770033925627</v>
+        <v>0.1983805603017597</v>
       </c>
       <c r="C58">
-        <v>-0.007602446874509484</v>
+        <v>0.04391622369440234</v>
       </c>
       <c r="D58">
-        <v>-0.04868463341847615</v>
+        <v>-0.008685106026953758</v>
       </c>
       <c r="E58">
-        <v>-0.1384020040746528</v>
+        <v>-0.07962361285033548</v>
       </c>
       <c r="F58">
-        <v>-0.07391372579764295</v>
+        <v>0.177427481170282</v>
       </c>
       <c r="G58">
-        <v>0.2759034668318766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1697757769370592</v>
+      </c>
+      <c r="H58">
+        <v>-0.3284729204092601</v>
+      </c>
+      <c r="I58">
+        <v>0.01803906335939145</v>
+      </c>
+      <c r="J58">
+        <v>-0.6667268748303807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.001189152775567635</v>
+        <v>0.02924425854620057</v>
       </c>
       <c r="C59">
-        <v>-0.2043678300309525</v>
+        <v>-0.1985233981270208</v>
       </c>
       <c r="D59">
-        <v>0.01165435014296617</v>
+        <v>0.01307892538910526</v>
       </c>
       <c r="E59">
-        <v>-0.04928988570001754</v>
+        <v>-0.04460557184178616</v>
       </c>
       <c r="F59">
-        <v>0.01183394954146292</v>
+        <v>0.04962309562163239</v>
       </c>
       <c r="G59">
-        <v>-0.01576664111925569</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004243384357415115</v>
+      </c>
+      <c r="H59">
+        <v>0.02052053340194292</v>
+      </c>
+      <c r="I59">
+        <v>0.07411657434008612</v>
+      </c>
+      <c r="J59">
+        <v>-0.03139147475211226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1886537121396527</v>
+        <v>0.1840560733920589</v>
       </c>
       <c r="C60">
-        <v>-0.1162095786752498</v>
+        <v>-0.0558989583970959</v>
       </c>
       <c r="D60">
-        <v>0.02584446230736468</v>
+        <v>0.02988957159402448</v>
       </c>
       <c r="E60">
-        <v>-0.1704126423280152</v>
+        <v>-0.1328446283059227</v>
       </c>
       <c r="F60">
-        <v>0.05502996318656113</v>
+        <v>0.173073589004835</v>
       </c>
       <c r="G60">
-        <v>-0.1767052841842696</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05893398005836995</v>
+      </c>
+      <c r="H60">
+        <v>0.2475723552717485</v>
+      </c>
+      <c r="I60">
+        <v>-0.1033604962693891</v>
+      </c>
+      <c r="J60">
+        <v>-0.01405446673406755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04816741960086592</v>
+        <v>0.0382645543696906</v>
       </c>
       <c r="C61">
-        <v>-0.0008526520473930021</v>
+        <v>0.01797478247962763</v>
       </c>
       <c r="D61">
-        <v>-0.0119648695750013</v>
+        <v>0.002688823566166138</v>
       </c>
       <c r="E61">
-        <v>-0.0513723413653235</v>
+        <v>-0.02120099058632152</v>
       </c>
       <c r="F61">
-        <v>0.0254957294490398</v>
+        <v>0.04528585090431417</v>
       </c>
       <c r="G61">
-        <v>-0.009717916591608656</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008409019844221091</v>
+      </c>
+      <c r="H61">
+        <v>-0.006445427697176162</v>
+      </c>
+      <c r="I61">
+        <v>-0.03659244229331542</v>
+      </c>
+      <c r="J61">
+        <v>-0.01518363532982694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04341729857122793</v>
+        <v>0.02897728311716631</v>
       </c>
       <c r="C63">
-        <v>-0.009548925271970956</v>
+        <v>0.01391409391550519</v>
       </c>
       <c r="D63">
-        <v>0.0145217576109556</v>
+        <v>0.01373458253270243</v>
       </c>
       <c r="E63">
-        <v>-0.03705142230214067</v>
+        <v>-0.01073005864075339</v>
       </c>
       <c r="F63">
-        <v>0.004670914573414456</v>
+        <v>0.02994181663174832</v>
       </c>
       <c r="G63">
-        <v>0.01880897286886589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.00558144486515282</v>
+      </c>
+      <c r="H63">
+        <v>-0.04699601284993192</v>
+      </c>
+      <c r="I63">
+        <v>0.02983274224249459</v>
+      </c>
+      <c r="J63">
+        <v>0.02223276164861589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08788625957032185</v>
+        <v>0.06268022629902605</v>
       </c>
       <c r="C64">
-        <v>0.0289683349494449</v>
+        <v>0.03955232442113305</v>
       </c>
       <c r="D64">
-        <v>0.05500621835866994</v>
+        <v>0.03428841636211344</v>
       </c>
       <c r="E64">
-        <v>-0.05623475381265732</v>
+        <v>0.0193876298577812</v>
       </c>
       <c r="F64">
-        <v>0.09232821210668643</v>
+        <v>0.07351442821678492</v>
       </c>
       <c r="G64">
-        <v>-0.05444639909084795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06314302065958891</v>
+      </c>
+      <c r="H64">
+        <v>0.01144116059373649</v>
+      </c>
+      <c r="I64">
+        <v>0.02560233240683697</v>
+      </c>
+      <c r="J64">
+        <v>0.07669653624522371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01578168920095047</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003715990304423143</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0002433480985024274</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00630816390972701</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.00022872107895805</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.020414238367994</v>
+      </c>
+      <c r="H65">
+        <v>0.001627142190733395</v>
+      </c>
+      <c r="I65">
+        <v>-0.004291676067552735</v>
+      </c>
+      <c r="J65">
+        <v>-0.001758090121058992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09715684053682166</v>
+        <v>0.06967481434045436</v>
       </c>
       <c r="C66">
-        <v>0.01724058821505041</v>
+        <v>0.04744242351694101</v>
       </c>
       <c r="D66">
-        <v>0.03488988554316458</v>
+        <v>0.04343626384162354</v>
       </c>
       <c r="E66">
-        <v>-0.08147813960295541</v>
+        <v>-0.03416886890614625</v>
       </c>
       <c r="F66">
-        <v>0.04363311730407721</v>
+        <v>0.07427385134081478</v>
       </c>
       <c r="G66">
-        <v>-0.009816424948060528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0108465009553471</v>
+      </c>
+      <c r="H66">
+        <v>-0.009607020279409231</v>
+      </c>
+      <c r="I66">
+        <v>-0.0471315494379258</v>
+      </c>
+      <c r="J66">
+        <v>0.03376672519826236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06371647584656751</v>
+        <v>0.04147950819364265</v>
       </c>
       <c r="C67">
-        <v>-0.02047774300659094</v>
+        <v>-0.007427361065791839</v>
       </c>
       <c r="D67">
-        <v>0.0120899502072165</v>
+        <v>0.007821121527317412</v>
       </c>
       <c r="E67">
-        <v>-0.02469636963507264</v>
+        <v>-0.01431589214026382</v>
       </c>
       <c r="F67">
-        <v>0.0104213084278143</v>
+        <v>0.03686938834052122</v>
       </c>
       <c r="G67">
-        <v>0.03763774040121252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0319418010718881</v>
+      </c>
+      <c r="H67">
+        <v>-0.002321858250811916</v>
+      </c>
+      <c r="I67">
+        <v>-0.03408380184177044</v>
+      </c>
+      <c r="J67">
+        <v>-0.00979124044980886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.003611094361311663</v>
+        <v>0.03611653189212348</v>
       </c>
       <c r="C68">
-        <v>-0.2451646310962634</v>
+        <v>-0.2347733418625663</v>
       </c>
       <c r="D68">
-        <v>-0.0009194682562885607</v>
+        <v>0.00583953740611695</v>
       </c>
       <c r="E68">
-        <v>-0.034744003685469</v>
+        <v>-0.03961062709436708</v>
       </c>
       <c r="F68">
-        <v>0.002260433565010368</v>
+        <v>0.03529453069040307</v>
       </c>
       <c r="G68">
-        <v>-0.002863963949013572</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.00411586958533563</v>
+      </c>
+      <c r="H68">
+        <v>0.02162064957965028</v>
+      </c>
+      <c r="I68">
+        <v>0.1749026713914879</v>
+      </c>
+      <c r="J68">
+        <v>-0.03150766509622676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06752154118570429</v>
+        <v>0.06949131490936045</v>
       </c>
       <c r="C69">
-        <v>0.005763444250139824</v>
+        <v>0.01564470051245481</v>
       </c>
       <c r="D69">
-        <v>0.02298704083199353</v>
+        <v>0.03156923911325422</v>
       </c>
       <c r="E69">
-        <v>0.01068926685105443</v>
+        <v>-0.007213582017250447</v>
       </c>
       <c r="F69">
-        <v>-0.001517867402437008</v>
+        <v>0.003319340845391168</v>
       </c>
       <c r="G69">
-        <v>0.01610105263129068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02254121283558305</v>
+      </c>
+      <c r="H69">
+        <v>-0.04627589504294815</v>
+      </c>
+      <c r="I69">
+        <v>-0.0011671675976586</v>
+      </c>
+      <c r="J69">
+        <v>-0.004445501993780613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.002138117139057029</v>
+        <v>0.04130728616333521</v>
       </c>
       <c r="C71">
-        <v>-0.2618053267950314</v>
+        <v>-0.2486853813282416</v>
       </c>
       <c r="D71">
-        <v>-0.002733680904369122</v>
+        <v>-0.01379523259115755</v>
       </c>
       <c r="E71">
-        <v>-0.06395246044958225</v>
+        <v>-0.06565126975962537</v>
       </c>
       <c r="F71">
-        <v>0.01576420783455875</v>
+        <v>0.04786198808035556</v>
       </c>
       <c r="G71">
-        <v>-0.0863202668598201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01643450109284923</v>
+      </c>
+      <c r="H71">
+        <v>0.0391915874311851</v>
+      </c>
+      <c r="I71">
+        <v>0.1441737599573416</v>
+      </c>
+      <c r="J71">
+        <v>-0.03685885491041074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1173154154991739</v>
+        <v>0.1199631041119799</v>
       </c>
       <c r="C72">
-        <v>-0.0179342085921847</v>
+        <v>0.005434941799260425</v>
       </c>
       <c r="D72">
-        <v>0.04699728400965208</v>
+        <v>0.05569079634349262</v>
       </c>
       <c r="E72">
-        <v>-0.0902827437896537</v>
+        <v>-0.01924487452172133</v>
       </c>
       <c r="F72">
-        <v>0.007073132377660045</v>
+        <v>0.08382357421867041</v>
       </c>
       <c r="G72">
-        <v>0.06188145787483902</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04557558052557739</v>
+      </c>
+      <c r="H72">
+        <v>-0.001861607113948563</v>
+      </c>
+      <c r="I72">
+        <v>-0.0242099534623916</v>
+      </c>
+      <c r="J72">
+        <v>-0.1303604839445064</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2797907858043708</v>
+        <v>0.2692960630333616</v>
       </c>
       <c r="C73">
-        <v>-0.1949439662489297</v>
+        <v>-0.1078525108397085</v>
       </c>
       <c r="D73">
-        <v>-0.02715965586584908</v>
+        <v>-0.001527766002844512</v>
       </c>
       <c r="E73">
-        <v>-0.306461590588568</v>
+        <v>-0.2280910538801106</v>
       </c>
       <c r="F73">
-        <v>0.0748444114268248</v>
+        <v>0.2579622952927942</v>
       </c>
       <c r="G73">
-        <v>-0.3900696687934839</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1254164716523591</v>
+      </c>
+      <c r="H73">
+        <v>0.4436786527976828</v>
+      </c>
+      <c r="I73">
+        <v>-0.3415484526644267</v>
+      </c>
+      <c r="J73">
+        <v>-0.05431295826439101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.158013726987008</v>
+        <v>0.1518876076243421</v>
       </c>
       <c r="C74">
-        <v>-0.009497316567302287</v>
+        <v>0.01932603201209599</v>
       </c>
       <c r="D74">
-        <v>0.04678617498879149</v>
+        <v>0.04809341888098804</v>
       </c>
       <c r="E74">
-        <v>0.005936331660730041</v>
+        <v>0.01794542270064454</v>
       </c>
       <c r="F74">
-        <v>-0.04845717704022082</v>
+        <v>-0.03661240884662813</v>
       </c>
       <c r="G74">
-        <v>-0.03764192408791191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01344021172619302</v>
+      </c>
+      <c r="H74">
+        <v>0.02156611362797223</v>
+      </c>
+      <c r="I74">
+        <v>-0.00756940546250516</v>
+      </c>
+      <c r="J74">
+        <v>0.08493650016767607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2361717295415779</v>
+        <v>0.2435204716809709</v>
       </c>
       <c r="C75">
-        <v>-0.01497121041349408</v>
+        <v>0.02043036132078289</v>
       </c>
       <c r="D75">
-        <v>0.06262461464106452</v>
+        <v>0.1034137404328024</v>
       </c>
       <c r="E75">
-        <v>0.1223819309689567</v>
+        <v>0.0453245135553772</v>
       </c>
       <c r="F75">
-        <v>-0.06269695324709854</v>
+        <v>-0.1256617932601971</v>
       </c>
       <c r="G75">
-        <v>-0.0278250930739363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.00756548625179345</v>
+      </c>
+      <c r="H75">
+        <v>0.01880069590125088</v>
+      </c>
+      <c r="I75">
+        <v>0.06599793416895275</v>
+      </c>
+      <c r="J75">
+        <v>0.09689667330548439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2430857690612216</v>
+        <v>0.2667319638417239</v>
       </c>
       <c r="C76">
-        <v>-0.02033944926879957</v>
+        <v>0.01416782354118557</v>
       </c>
       <c r="D76">
-        <v>0.1009425607435057</v>
+        <v>0.1288233408067175</v>
       </c>
       <c r="E76">
-        <v>0.1114958337012023</v>
+        <v>0.08829430525696896</v>
       </c>
       <c r="F76">
-        <v>-0.07948181863300746</v>
+        <v>-0.1426743842305541</v>
       </c>
       <c r="G76">
-        <v>-0.04476794885745418</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04308935823537369</v>
+      </c>
+      <c r="H76">
+        <v>0.03342346393019366</v>
+      </c>
+      <c r="I76">
+        <v>-0.0204141225428534</v>
+      </c>
+      <c r="J76">
+        <v>0.1177671552149229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1268610014086813</v>
+        <v>0.1335455710615349</v>
       </c>
       <c r="C77">
-        <v>0.01773965177636022</v>
+        <v>0.05032964019811258</v>
       </c>
       <c r="D77">
-        <v>-0.05284371108676</v>
+        <v>-0.0453742405841198</v>
       </c>
       <c r="E77">
-        <v>-0.1676316417763177</v>
+        <v>-0.04268182748930444</v>
       </c>
       <c r="F77">
-        <v>0.01749256984047503</v>
+        <v>0.1672998044283928</v>
       </c>
       <c r="G77">
-        <v>0.157903871909234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02056729599811571</v>
+      </c>
+      <c r="H77">
+        <v>-0.1932937718101953</v>
+      </c>
+      <c r="I77">
+        <v>0.1616629509019429</v>
+      </c>
+      <c r="J77">
+        <v>0.114766540632178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09317311469803555</v>
+        <v>0.08959674318070707</v>
       </c>
       <c r="C78">
-        <v>0.03035780745186898</v>
+        <v>0.0580748374972654</v>
       </c>
       <c r="D78">
-        <v>-0.01782696203842672</v>
+        <v>-0.0001848276047065553</v>
       </c>
       <c r="E78">
-        <v>-0.0662908493277866</v>
+        <v>-0.01114291438850959</v>
       </c>
       <c r="F78">
-        <v>0.01649305728215553</v>
+        <v>0.08937071765666248</v>
       </c>
       <c r="G78">
-        <v>0.004494612784135276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.001431778089510318</v>
+      </c>
+      <c r="H78">
+        <v>-0.02920129226253291</v>
+      </c>
+      <c r="I78">
+        <v>0.03542982769162069</v>
+      </c>
+      <c r="J78">
+        <v>0.01794401172480772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06069005705047925</v>
+        <v>0.1111821641924665</v>
       </c>
       <c r="C80">
-        <v>0.004589020395330588</v>
+        <v>-0.1235411135584262</v>
       </c>
       <c r="D80">
-        <v>-0.01683774487329327</v>
+        <v>-0.2569481747925581</v>
       </c>
       <c r="E80">
-        <v>-0.02637864809669139</v>
+        <v>0.8756574816400545</v>
       </c>
       <c r="F80">
-        <v>-0.04159884736545138</v>
+        <v>0.3190711128886743</v>
       </c>
       <c r="G80">
-        <v>0.3937717796828475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01652055673976317</v>
+      </c>
+      <c r="H80">
+        <v>0.12106850218676</v>
+      </c>
+      <c r="I80">
+        <v>-0.05275375650963132</v>
+      </c>
+      <c r="J80">
+        <v>-0.06929194353720675</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1622499119341493</v>
+        <v>0.1768673454452826</v>
       </c>
       <c r="C81">
-        <v>-0.0137595549956684</v>
+        <v>0.004676534167105751</v>
       </c>
       <c r="D81">
-        <v>0.05110206605002239</v>
+        <v>0.08590316292586549</v>
       </c>
       <c r="E81">
-        <v>0.1253776214469966</v>
+        <v>0.05511227698409095</v>
       </c>
       <c r="F81">
-        <v>-0.09224445497400288</v>
+        <v>-0.1353255171642297</v>
       </c>
       <c r="G81">
-        <v>-0.03338670912841063</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02135006224705024</v>
+      </c>
+      <c r="H81">
+        <v>0.01406283539930725</v>
+      </c>
+      <c r="I81">
+        <v>0.03310324854728388</v>
+      </c>
+      <c r="J81">
+        <v>0.04894421408819397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08223620906266879</v>
+        <v>0.06316710831060207</v>
       </c>
       <c r="C83">
-        <v>0.03575784916789204</v>
+        <v>0.03995396108536387</v>
       </c>
       <c r="D83">
-        <v>-0.08913518191968098</v>
+        <v>-0.03796284774887814</v>
       </c>
       <c r="E83">
-        <v>-0.03305155092224286</v>
+        <v>-0.04081527817806247</v>
       </c>
       <c r="F83">
-        <v>0.05994661794963114</v>
+        <v>0.04577162880636883</v>
       </c>
       <c r="G83">
-        <v>0.02331879095360835</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04728627291173438</v>
+      </c>
+      <c r="H83">
+        <v>-0.04090633019294645</v>
+      </c>
+      <c r="I83">
+        <v>0.02444711253887444</v>
+      </c>
+      <c r="J83">
+        <v>0.08338670009008484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2355922088873248</v>
+        <v>0.2544733691322026</v>
       </c>
       <c r="C85">
-        <v>0.0457145998632321</v>
+        <v>0.05244199974829306</v>
       </c>
       <c r="D85">
-        <v>0.05805795134093453</v>
+        <v>0.08734616550665859</v>
       </c>
       <c r="E85">
-        <v>0.1370365925318048</v>
+        <v>0.08657648161526456</v>
       </c>
       <c r="F85">
-        <v>-0.05963076865261667</v>
+        <v>-0.1385243719397841</v>
       </c>
       <c r="G85">
-        <v>0.008342168207507012</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.003833126119093797</v>
+      </c>
+      <c r="H85">
+        <v>-0.01822116806052622</v>
+      </c>
+      <c r="I85">
+        <v>0.04161518320091238</v>
+      </c>
+      <c r="J85">
+        <v>0.1177409767146091</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0476517801113507</v>
+        <v>0.02869672509761779</v>
       </c>
       <c r="C86">
-        <v>0.03688304097579321</v>
+        <v>0.0436819030653408</v>
       </c>
       <c r="D86">
-        <v>0.008424473667655412</v>
+        <v>0.004920306240281095</v>
       </c>
       <c r="E86">
-        <v>-0.04826801671799559</v>
+        <v>-0.001806726588525075</v>
       </c>
       <c r="F86">
-        <v>0.0006519835851336431</v>
+        <v>0.06664409234937467</v>
       </c>
       <c r="G86">
-        <v>0.04070622188215564</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005378953279384385</v>
+      </c>
+      <c r="H86">
+        <v>-0.05825183458553836</v>
+      </c>
+      <c r="I86">
+        <v>0.05476947610914844</v>
+      </c>
+      <c r="J86">
+        <v>0.01859036684895599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02558841132107776</v>
+        <v>0.03568415181583608</v>
       </c>
       <c r="C87">
-        <v>-0.05351443425518278</v>
+        <v>-0.02221001893859049</v>
       </c>
       <c r="D87">
-        <v>0.0171188393052316</v>
+        <v>0.005444504927409539</v>
       </c>
       <c r="E87">
-        <v>-0.06157262806272206</v>
+        <v>-0.0365807048959535</v>
       </c>
       <c r="F87">
-        <v>0.05703847592511493</v>
+        <v>0.08984540098721257</v>
       </c>
       <c r="G87">
-        <v>-0.117937666603099</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02499269009248797</v>
+      </c>
+      <c r="H87">
+        <v>0.008852573271159812</v>
+      </c>
+      <c r="I87">
+        <v>-0.01027607657482954</v>
+      </c>
+      <c r="J87">
+        <v>-0.06525964860491251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03788917576644774</v>
+        <v>0.02460913733840931</v>
       </c>
       <c r="C88">
-        <v>0.02397702994757972</v>
+        <v>0.01607701891136539</v>
       </c>
       <c r="D88">
-        <v>0.008331245809315492</v>
+        <v>0.01115906425930872</v>
       </c>
       <c r="E88">
-        <v>0.003884514150063088</v>
+        <v>0.02527139196688571</v>
       </c>
       <c r="F88">
-        <v>-0.01136245470662169</v>
+        <v>0.005323724698028195</v>
       </c>
       <c r="G88">
-        <v>0.05225363753383904</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02764710135331365</v>
+      </c>
+      <c r="H88">
+        <v>-0.04601841489158782</v>
+      </c>
+      <c r="I88">
+        <v>-0.02113642407226732</v>
+      </c>
+      <c r="J88">
+        <v>-0.007971929548732711</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02015853855944397</v>
+        <v>0.05392313897936695</v>
       </c>
       <c r="C89">
-        <v>-0.4246596820829751</v>
+        <v>-0.3945110436260734</v>
       </c>
       <c r="D89">
-        <v>-0.0974033657709425</v>
+        <v>-0.03661541099445146</v>
       </c>
       <c r="E89">
-        <v>0.02365485136259871</v>
+        <v>-0.08111618043750965</v>
       </c>
       <c r="F89">
-        <v>0.005196341142650599</v>
+        <v>-0.0003542531999710648</v>
       </c>
       <c r="G89">
-        <v>0.041235898103113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.05706999922537209</v>
+      </c>
+      <c r="H89">
+        <v>-0.02096507940613788</v>
+      </c>
+      <c r="I89">
+        <v>0.2849935596101993</v>
+      </c>
+      <c r="J89">
+        <v>0.01668581157478265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01190581411347124</v>
+        <v>0.03591287455630643</v>
       </c>
       <c r="C90">
-        <v>-0.3068815433429466</v>
+        <v>-0.3337984068388952</v>
       </c>
       <c r="D90">
-        <v>-0.02315379334873295</v>
+        <v>-0.02182387816042651</v>
       </c>
       <c r="E90">
-        <v>-0.03105333623046423</v>
+        <v>-0.0337403666686549</v>
       </c>
       <c r="F90">
-        <v>0.009882758001935383</v>
+        <v>0.02765513406525687</v>
       </c>
       <c r="G90">
-        <v>-0.06566974681236282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02254321793206481</v>
+      </c>
+      <c r="H90">
+        <v>0.02735431254465864</v>
+      </c>
+      <c r="I90">
+        <v>0.2160407166869805</v>
+      </c>
+      <c r="J90">
+        <v>-0.02643130901484927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3025837757166168</v>
+        <v>0.3161750474506904</v>
       </c>
       <c r="C91">
-        <v>0.01539836818193156</v>
+        <v>0.039244178446445</v>
       </c>
       <c r="D91">
-        <v>0.06231696906904024</v>
+        <v>0.1045418377266049</v>
       </c>
       <c r="E91">
-        <v>0.2727829863044663</v>
+        <v>0.1060605970619694</v>
       </c>
       <c r="F91">
-        <v>-0.1666928487514052</v>
+        <v>-0.2691655771333596</v>
       </c>
       <c r="G91">
-        <v>0.05559860982342272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03802969185927086</v>
+      </c>
+      <c r="H91">
+        <v>0.02392315038320479</v>
+      </c>
+      <c r="I91">
+        <v>0.08493870014879125</v>
+      </c>
+      <c r="J91">
+        <v>0.2268544798016404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03356082599064875</v>
+        <v>0.07482278694458908</v>
       </c>
       <c r="C92">
-        <v>-0.4411055045301361</v>
+        <v>-0.4620010049605365</v>
       </c>
       <c r="D92">
-        <v>-0.2058873848229854</v>
+        <v>-0.06122742167032301</v>
       </c>
       <c r="E92">
-        <v>0.1125027086977003</v>
+        <v>0.008887831099876304</v>
       </c>
       <c r="F92">
-        <v>-0.09710572357158939</v>
+        <v>-0.152017221145883</v>
       </c>
       <c r="G92">
-        <v>0.4434378744920637</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04337702818092231</v>
+      </c>
+      <c r="H92">
+        <v>-0.5057406143197409</v>
+      </c>
+      <c r="I92">
+        <v>-0.6704694480837341</v>
+      </c>
+      <c r="J92">
+        <v>0.1520736444254551</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02734522881074606</v>
+        <v>0.03596419766229681</v>
       </c>
       <c r="C93">
-        <v>-0.3681722489792623</v>
+        <v>-0.4039909042149434</v>
       </c>
       <c r="D93">
-        <v>-0.06748959794908889</v>
+        <v>-0.04636277848011439</v>
       </c>
       <c r="E93">
-        <v>0.04296401500214542</v>
+        <v>-0.0540271756729974</v>
       </c>
       <c r="F93">
-        <v>-0.01664719265211884</v>
+        <v>-0.03575204422198234</v>
       </c>
       <c r="G93">
-        <v>0.01719712344885488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03897733310802592</v>
+      </c>
+      <c r="H93">
+        <v>0.03757368350432309</v>
+      </c>
+      <c r="I93">
+        <v>0.1999133657656917</v>
+      </c>
+      <c r="J93">
+        <v>-0.0008712162543572293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2959394032522997</v>
+        <v>0.3217598430186216</v>
       </c>
       <c r="C94">
-        <v>-0.03803958911337478</v>
+        <v>-0.001475439089586051</v>
       </c>
       <c r="D94">
-        <v>0.0159936214220529</v>
+        <v>0.1542688965826095</v>
       </c>
       <c r="E94">
-        <v>0.3735303009442457</v>
+        <v>0.08932350854788818</v>
       </c>
       <c r="F94">
-        <v>-0.4278258336237522</v>
+        <v>-0.3553834088000706</v>
       </c>
       <c r="G94">
-        <v>-0.03026591099186351</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1705537881323436</v>
+      </c>
+      <c r="H94">
+        <v>-0.08070661123512202</v>
+      </c>
+      <c r="I94">
+        <v>0.1050990440764701</v>
+      </c>
+      <c r="J94">
+        <v>-0.3439739285306034</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1982694111653805</v>
+        <v>0.1368661229863815</v>
       </c>
       <c r="C95">
-        <v>-0.03588404567409492</v>
+        <v>0.05854681616874024</v>
       </c>
       <c r="D95">
-        <v>-0.002925409208868017</v>
+        <v>0.04682278686318801</v>
       </c>
       <c r="E95">
-        <v>0.4434456298940468</v>
+        <v>-0.02970956219550357</v>
       </c>
       <c r="F95">
-        <v>0.8228846398813198</v>
+        <v>-0.04722672296985097</v>
       </c>
       <c r="G95">
-        <v>0.09514419080652045</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9327956045564642</v>
+      </c>
+      <c r="H95">
+        <v>0.07859631345541822</v>
+      </c>
+      <c r="I95">
+        <v>-0.06178211268279889</v>
+      </c>
+      <c r="J95">
+        <v>-0.2051298126456294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2162743003520978</v>
+        <v>0.2048937058001632</v>
       </c>
       <c r="C98">
-        <v>-0.1359958273970571</v>
+        <v>-0.07429131871122042</v>
       </c>
       <c r="D98">
-        <v>-0.03496599994928752</v>
+        <v>-0.007765578605272946</v>
       </c>
       <c r="E98">
-        <v>-0.1047998626774867</v>
+        <v>-0.1524699178828178</v>
       </c>
       <c r="F98">
-        <v>0.03952049599515783</v>
+        <v>0.1185712392389151</v>
       </c>
       <c r="G98">
-        <v>-0.2643514740449851</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.05704673766075261</v>
+      </c>
+      <c r="H98">
+        <v>0.3096926815893219</v>
+      </c>
+      <c r="I98">
+        <v>-0.1976619346112312</v>
+      </c>
+      <c r="J98">
+        <v>0.007398657118686485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01886355829740421</v>
+        <v>0.01175169561295837</v>
       </c>
       <c r="C101">
-        <v>0.01654277231461873</v>
+        <v>0.02794310201168514</v>
       </c>
       <c r="D101">
-        <v>0.02468397324555794</v>
+        <v>0.02707349096764074</v>
       </c>
       <c r="E101">
-        <v>-0.02868773834919123</v>
+        <v>-0.0009211806365239703</v>
       </c>
       <c r="F101">
-        <v>0.006888242676552006</v>
+        <v>0.06627892012556408</v>
       </c>
       <c r="G101">
-        <v>0.04219877298296187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.006392355575599637</v>
+      </c>
+      <c r="H101">
+        <v>-0.1192884480667254</v>
+      </c>
+      <c r="I101">
+        <v>-0.008680718436515203</v>
+      </c>
+      <c r="J101">
+        <v>-0.1816339964316729</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1178628815831414</v>
+        <v>0.1203654386265872</v>
       </c>
       <c r="C102">
-        <v>0.00679781772649402</v>
+        <v>0.0250635031632275</v>
       </c>
       <c r="D102">
-        <v>0.04047520347868797</v>
+        <v>0.05274405539890572</v>
       </c>
       <c r="E102">
-        <v>0.08475766344353058</v>
+        <v>0.05120707599413368</v>
       </c>
       <c r="F102">
-        <v>-0.0018714602931968</v>
+        <v>-0.0758899875131179</v>
       </c>
       <c r="G102">
-        <v>0.0008962183685761108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.030825743570692</v>
+      </c>
+      <c r="H102">
+        <v>0.01444453658351576</v>
+      </c>
+      <c r="I102">
+        <v>0.03929848206565897</v>
+      </c>
+      <c r="J102">
+        <v>0.04493928316640689</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01817014907567279</v>
+        <v>0.03102859941334091</v>
       </c>
       <c r="C103">
-        <v>-0.001661534697375064</v>
+        <v>0.00499585520602667</v>
       </c>
       <c r="D103">
-        <v>0.01475224236630544</v>
+        <v>0.01991263857225714</v>
       </c>
       <c r="E103">
-        <v>0.02839589887548189</v>
+        <v>0.02610044132261798</v>
       </c>
       <c r="F103">
-        <v>-0.01677423633101881</v>
+        <v>-0.01487350542752357</v>
       </c>
       <c r="G103">
-        <v>-0.008440036357090043</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01368689841472628</v>
+      </c>
+      <c r="H103">
+        <v>-0.01180271529163349</v>
+      </c>
+      <c r="I103">
+        <v>0.02906895452678705</v>
+      </c>
+      <c r="J103">
+        <v>0.01126503428827103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
